--- a/data/pca/factorExposure/factorExposure_2018-06-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02302355597164856</v>
+        <v>0.02163648376497026</v>
       </c>
       <c r="C2">
-        <v>0.02036767858133575</v>
+        <v>-0.0185987907164868</v>
       </c>
       <c r="D2">
-        <v>0.03067774129728745</v>
+        <v>-0.02178626103245404</v>
       </c>
       <c r="E2">
-        <v>-0.003689560941174669</v>
+        <v>0.01581611655875473</v>
       </c>
       <c r="F2">
-        <v>-0.1119491872271297</v>
+        <v>-0.004001280918179139</v>
       </c>
       <c r="G2">
-        <v>-0.05146088810672256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05156892178216282</v>
+      </c>
+      <c r="H2">
+        <v>0.04994204371578388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1049339380480884</v>
+        <v>0.08062447524627173</v>
       </c>
       <c r="C3">
-        <v>-0.04384782867647671</v>
+        <v>0.01207546758365072</v>
       </c>
       <c r="D3">
-        <v>0.09009541732420651</v>
+        <v>-0.02579358918546528</v>
       </c>
       <c r="E3">
-        <v>-0.0006727908833314107</v>
+        <v>0.01331252053766501</v>
       </c>
       <c r="F3">
-        <v>-0.3956925986046579</v>
+        <v>0.04460657777684757</v>
       </c>
       <c r="G3">
-        <v>-0.1584523172173559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.176154635410117</v>
+      </c>
+      <c r="H3">
+        <v>0.1619207100787373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04576707490108983</v>
+        <v>0.04444444771721657</v>
       </c>
       <c r="C4">
-        <v>0.02302625939479893</v>
+        <v>-0.00477739543889031</v>
       </c>
       <c r="D4">
-        <v>-0.01462473109045498</v>
+        <v>-0.04814264407094773</v>
       </c>
       <c r="E4">
-        <v>0.04931769468162516</v>
+        <v>-0.02390077294984451</v>
       </c>
       <c r="F4">
-        <v>-0.08093274288983747</v>
+        <v>-0.04721142354602474</v>
       </c>
       <c r="G4">
-        <v>-0.06074824310401215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04126346763106935</v>
+      </c>
+      <c r="H4">
+        <v>0.0566621355753837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01984715396837606</v>
+        <v>0.02565309479390693</v>
       </c>
       <c r="C6">
-        <v>0.0116768836867163</v>
+        <v>-0.003953173881164705</v>
       </c>
       <c r="D6">
-        <v>0.01313250499305143</v>
+        <v>-0.05114698634549313</v>
       </c>
       <c r="E6">
-        <v>0.02008213605923301</v>
+        <v>-0.008629192999118891</v>
       </c>
       <c r="F6">
-        <v>-0.02511551617873228</v>
+        <v>-0.02824898957626251</v>
       </c>
       <c r="G6">
-        <v>0.00626023468207198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01341857080923429</v>
+      </c>
+      <c r="H6">
+        <v>0.06216584003993528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02164175898179984</v>
+        <v>0.02192818463752693</v>
       </c>
       <c r="C7">
-        <v>0.0003185630003360867</v>
+        <v>-0.002731033372842921</v>
       </c>
       <c r="D7">
-        <v>0.01500076183130118</v>
+        <v>-0.02730634326610602</v>
       </c>
       <c r="E7">
-        <v>0.02771655059635281</v>
+        <v>-0.04150142203421208</v>
       </c>
       <c r="F7">
-        <v>-0.05618280233994067</v>
+        <v>-0.0007109055870443845</v>
       </c>
       <c r="G7">
-        <v>-0.06774220369226493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02427111121224095</v>
+      </c>
+      <c r="H7">
+        <v>0.03571820964235851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01899809196932792</v>
+        <v>0.005295678438274795</v>
       </c>
       <c r="C8">
-        <v>0.01326762073689427</v>
+        <v>0.001360861157301858</v>
       </c>
       <c r="D8">
-        <v>0.008538472416331924</v>
+        <v>-0.01111485444771285</v>
       </c>
       <c r="E8">
-        <v>0.04468394061932217</v>
+        <v>-0.007353931598558958</v>
       </c>
       <c r="F8">
-        <v>-0.1007947134856135</v>
+        <v>-0.0143574369600988</v>
       </c>
       <c r="G8">
-        <v>-0.05447013834120858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.045091370584493</v>
+      </c>
+      <c r="H8">
+        <v>0.04244942683199177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03587204308789378</v>
+        <v>0.03591608635472451</v>
       </c>
       <c r="C9">
-        <v>0.01954523681422819</v>
+        <v>-0.0007530615205513831</v>
       </c>
       <c r="D9">
-        <v>-0.004756160035042767</v>
+        <v>-0.03564046458661834</v>
       </c>
       <c r="E9">
-        <v>0.04268255684935072</v>
+        <v>-0.01246438442386653</v>
       </c>
       <c r="F9">
-        <v>-0.0841980039010469</v>
+        <v>-0.02334719274267692</v>
       </c>
       <c r="G9">
-        <v>-0.06061068840238126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04807214915775036</v>
+      </c>
+      <c r="H9">
+        <v>0.05404021184899419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03086564447019569</v>
+        <v>0.1008757154150321</v>
       </c>
       <c r="C10">
-        <v>-0.04080976454460484</v>
+        <v>0.02671966380473956</v>
       </c>
       <c r="D10">
-        <v>-0.08233101524168983</v>
+        <v>0.1582791849643226</v>
       </c>
       <c r="E10">
-        <v>-0.1069607822596656</v>
+        <v>0.009935789908354815</v>
       </c>
       <c r="F10">
-        <v>-0.04544710872985614</v>
+        <v>0.04201144891799497</v>
       </c>
       <c r="G10">
-        <v>0.02001948117744733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02223074904660342</v>
+      </c>
+      <c r="H10">
+        <v>0.005739825208892292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03520764910974834</v>
+        <v>0.02083129522495206</v>
       </c>
       <c r="C11">
-        <v>0.01479952824467487</v>
+        <v>0.008260777631326434</v>
       </c>
       <c r="D11">
-        <v>0.01840247391223905</v>
+        <v>-0.03987337309834928</v>
       </c>
       <c r="E11">
-        <v>0.03200469185202118</v>
+        <v>0.0007048229924061445</v>
       </c>
       <c r="F11">
-        <v>-0.04426087116028921</v>
+        <v>-0.00867379597236506</v>
       </c>
       <c r="G11">
-        <v>-0.02653584202329187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02557436058617698</v>
+      </c>
+      <c r="H11">
+        <v>0.04525648716508994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04317908137336971</v>
+        <v>0.02986502418568716</v>
       </c>
       <c r="C12">
-        <v>0.0161141204361409</v>
+        <v>0.006669373195037801</v>
       </c>
       <c r="D12">
-        <v>0.01111617994733369</v>
+        <v>-0.04008469158922406</v>
       </c>
       <c r="E12">
-        <v>0.03997975377850353</v>
+        <v>-0.009295115125005174</v>
       </c>
       <c r="F12">
-        <v>-0.03230237130920131</v>
+        <v>-0.01479094164599743</v>
       </c>
       <c r="G12">
-        <v>-0.01653402166613904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01041877797166628</v>
+      </c>
+      <c r="H12">
+        <v>0.0235568325949424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01562116020220775</v>
+        <v>0.02528033061302061</v>
       </c>
       <c r="C13">
-        <v>0.01957883598861681</v>
+        <v>-0.01470208287796078</v>
       </c>
       <c r="D13">
-        <v>0.01585374441866736</v>
+        <v>-6.040761368515651e-05</v>
       </c>
       <c r="E13">
-        <v>-0.0009127550262135022</v>
+        <v>0.01226350593241365</v>
       </c>
       <c r="F13">
-        <v>-0.07823368888629696</v>
+        <v>-0.009235610957588699</v>
       </c>
       <c r="G13">
-        <v>-0.04150614153078638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05535966305761429</v>
+      </c>
+      <c r="H13">
+        <v>0.06075897516493885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01474896206098542</v>
+        <v>0.01694592091752661</v>
       </c>
       <c r="C14">
-        <v>0.008832244679439761</v>
+        <v>-0.0007670380640657993</v>
       </c>
       <c r="D14">
-        <v>-0.004492972444401755</v>
+        <v>-0.005523952683914345</v>
       </c>
       <c r="E14">
-        <v>0.03901240048797788</v>
+        <v>-0.01383623892162799</v>
       </c>
       <c r="F14">
-        <v>-0.05152006053101484</v>
+        <v>-0.01209956214651301</v>
       </c>
       <c r="G14">
-        <v>-0.06810955798657484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04257751163157989</v>
+      </c>
+      <c r="H14">
+        <v>0.00509020266520031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02692695568609433</v>
+        <v>0.02215753226290074</v>
       </c>
       <c r="C16">
-        <v>0.01836095227390215</v>
+        <v>0.008739733558083366</v>
       </c>
       <c r="D16">
-        <v>0.01812176937947856</v>
+        <v>-0.03481648886458415</v>
       </c>
       <c r="E16">
-        <v>0.02438977835456223</v>
+        <v>-0.003117387754032262</v>
       </c>
       <c r="F16">
-        <v>-0.05134460674009322</v>
+        <v>-0.01435446472724829</v>
       </c>
       <c r="G16">
-        <v>-0.02946315316178433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02279787370790054</v>
+      </c>
+      <c r="H16">
+        <v>0.03774158892985797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04888384250526297</v>
+        <v>0.03430940308393345</v>
       </c>
       <c r="C19">
-        <v>0.01733921240612011</v>
+        <v>-0.0004549914992195518</v>
       </c>
       <c r="D19">
-        <v>0.01678315377666111</v>
+        <v>-0.02090864776263372</v>
       </c>
       <c r="E19">
-        <v>0.03971910018807674</v>
+        <v>-0.005951769658264551</v>
       </c>
       <c r="F19">
-        <v>-0.1034117863847495</v>
+        <v>-0.0159912685535583</v>
       </c>
       <c r="G19">
-        <v>-0.03119483939741049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05688378623409789</v>
+      </c>
+      <c r="H19">
+        <v>0.07192393677743933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001347120634519839</v>
+        <v>0.009148214630053757</v>
       </c>
       <c r="C20">
-        <v>0.01136047992354186</v>
+        <v>-0.006758558715947311</v>
       </c>
       <c r="D20">
-        <v>-0.001554879605062062</v>
+        <v>-0.009012073890438708</v>
       </c>
       <c r="E20">
-        <v>0.03202740442512067</v>
+        <v>-0.004244249143009691</v>
       </c>
       <c r="F20">
-        <v>-0.07323848918245718</v>
+        <v>-0.01049827277521391</v>
       </c>
       <c r="G20">
-        <v>-0.07216625118353692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04860496472372192</v>
+      </c>
+      <c r="H20">
+        <v>0.01636906087220102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003458105506063591</v>
+        <v>0.01487909389832135</v>
       </c>
       <c r="C21">
-        <v>-0.01759056213482736</v>
+        <v>-0.008538149873098921</v>
       </c>
       <c r="D21">
-        <v>0.01209502264750609</v>
+        <v>-0.008440311426474258</v>
       </c>
       <c r="E21">
-        <v>0.02326281262417657</v>
+        <v>-0.01642646786869517</v>
       </c>
       <c r="F21">
-        <v>-0.05278883374392229</v>
+        <v>1.155399939447751e-05</v>
       </c>
       <c r="G21">
-        <v>-0.02853015910412124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04656391599641146</v>
+      </c>
+      <c r="H21">
+        <v>0.03719499981622598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03167110665409634</v>
+        <v>0.01987344699084946</v>
       </c>
       <c r="C24">
-        <v>0.01976304362202655</v>
+        <v>0.003107740767968477</v>
       </c>
       <c r="D24">
-        <v>0.009876561520636151</v>
+        <v>-0.03530389053372349</v>
       </c>
       <c r="E24">
-        <v>0.009950600586060159</v>
+        <v>-0.0005073470765908779</v>
       </c>
       <c r="F24">
-        <v>-0.04450576737375457</v>
+        <v>-0.009200851700579998</v>
       </c>
       <c r="G24">
-        <v>-0.02615510001808471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01933061617355307</v>
+      </c>
+      <c r="H24">
+        <v>0.0423288115190285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03088465592822691</v>
+        <v>0.02950958519919847</v>
       </c>
       <c r="C25">
-        <v>0.01173099574723426</v>
+        <v>0.0009843716615694318</v>
       </c>
       <c r="D25">
-        <v>0.01755608275218796</v>
+        <v>-0.03462396171538549</v>
       </c>
       <c r="E25">
-        <v>0.03617461392416584</v>
+        <v>-0.004514023830673911</v>
       </c>
       <c r="F25">
-        <v>-0.04472000629408495</v>
+        <v>-0.01519620641366333</v>
       </c>
       <c r="G25">
-        <v>-0.009004090419550579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0231187236670748</v>
+      </c>
+      <c r="H25">
+        <v>0.04433007555073226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02070667414240612</v>
+        <v>0.0202386199993186</v>
       </c>
       <c r="C26">
-        <v>0.003917253250107255</v>
+        <v>-0.01730879318118714</v>
       </c>
       <c r="D26">
-        <v>0.03061187349569393</v>
+        <v>-0.002868258727111504</v>
       </c>
       <c r="E26">
-        <v>0.01668899751882496</v>
+        <v>0.001381726103531856</v>
       </c>
       <c r="F26">
-        <v>-0.06256890802876464</v>
+        <v>0.0005144259743594815</v>
       </c>
       <c r="G26">
-        <v>-0.03591035802692292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03187695507469545</v>
+      </c>
+      <c r="H26">
+        <v>0.02171852436098893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06168305240655335</v>
+        <v>0.02469797300022094</v>
       </c>
       <c r="C27">
-        <v>0.02947089138436944</v>
+        <v>0.009370862273306413</v>
       </c>
       <c r="D27">
-        <v>-0.02555202886119934</v>
+        <v>-0.01440337214078152</v>
       </c>
       <c r="E27">
-        <v>0.03650799960688497</v>
+        <v>-0.007805934978356487</v>
       </c>
       <c r="F27">
-        <v>-0.05411474055963832</v>
+        <v>-0.01541616029826719</v>
       </c>
       <c r="G27">
-        <v>-0.04582555963764925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01874249275835599</v>
+      </c>
+      <c r="H27">
+        <v>0.004216832541585808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04738721546873854</v>
+        <v>0.1506343702716198</v>
       </c>
       <c r="C28">
-        <v>-0.04319065162445827</v>
+        <v>0.02677162120990669</v>
       </c>
       <c r="D28">
-        <v>-0.1149340202392734</v>
+        <v>0.2261322046437413</v>
       </c>
       <c r="E28">
-        <v>-0.1489198582030811</v>
+        <v>0.007640383336692541</v>
       </c>
       <c r="F28">
-        <v>-0.04140935663979287</v>
+        <v>0.04356911821471317</v>
       </c>
       <c r="G28">
-        <v>0.001231690247385091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.007621994865584285</v>
+      </c>
+      <c r="H28">
+        <v>-0.01063138080470431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02178659280821572</v>
+        <v>0.02198809261770092</v>
       </c>
       <c r="C29">
-        <v>0.01033997250197071</v>
+        <v>0.001413869074944504</v>
       </c>
       <c r="D29">
-        <v>-0.006984178156352904</v>
+        <v>-0.007084157582158941</v>
       </c>
       <c r="E29">
-        <v>0.05322085131224821</v>
+        <v>-0.01390233276991377</v>
       </c>
       <c r="F29">
-        <v>-0.04342247874536776</v>
+        <v>-0.01511376024669327</v>
       </c>
       <c r="G29">
-        <v>-0.05844714972393378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0406282075582522</v>
+      </c>
+      <c r="H29">
+        <v>0.0008807690706863382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09153602138289003</v>
+        <v>0.05067978496464801</v>
       </c>
       <c r="C30">
-        <v>0.06049175504106265</v>
+        <v>-0.004992431874103626</v>
       </c>
       <c r="D30">
-        <v>0.01845593364445381</v>
+        <v>-0.07029585840252428</v>
       </c>
       <c r="E30">
-        <v>0.07013242336692463</v>
+        <v>0.02836667809061781</v>
       </c>
       <c r="F30">
-        <v>-0.09077734079444635</v>
+        <v>-0.04809007461179476</v>
       </c>
       <c r="G30">
-        <v>-0.05988191695653208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05509475472344585</v>
+      </c>
+      <c r="H30">
+        <v>0.06386732106779754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.062035798681994</v>
+        <v>0.05465932152917317</v>
       </c>
       <c r="C31">
-        <v>0.0269898102436379</v>
+        <v>0.01436836542041082</v>
       </c>
       <c r="D31">
-        <v>0.02787284755907108</v>
+        <v>-0.02483755842610137</v>
       </c>
       <c r="E31">
-        <v>0.006025213151698036</v>
+        <v>0.00442646052837814</v>
       </c>
       <c r="F31">
-        <v>-0.0391370436991684</v>
+        <v>-0.01092318408786077</v>
       </c>
       <c r="G31">
-        <v>-0.06495319063282487</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01689515257930198</v>
+      </c>
+      <c r="H31">
+        <v>0.0105764467441117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02072206150983721</v>
+        <v>0.01187761908347754</v>
       </c>
       <c r="C32">
-        <v>0.01592183745789513</v>
+        <v>0.01370554062309468</v>
       </c>
       <c r="D32">
-        <v>0.0144127499673026</v>
+        <v>-0.004979261632537417</v>
       </c>
       <c r="E32">
-        <v>0.08586731289409995</v>
+        <v>-0.03199390265969328</v>
       </c>
       <c r="F32">
-        <v>-0.07119819927990005</v>
+        <v>-0.03415194998649252</v>
       </c>
       <c r="G32">
-        <v>-0.05590609204774471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0335468183005898</v>
+      </c>
+      <c r="H32">
+        <v>0.06237203425885721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04996972811515758</v>
+        <v>0.03861628085585475</v>
       </c>
       <c r="C33">
-        <v>0.01163164061713269</v>
+        <v>0.001080668382789897</v>
       </c>
       <c r="D33">
-        <v>0.04708276653343235</v>
+        <v>-0.03347231294892275</v>
       </c>
       <c r="E33">
-        <v>0.03779182028234333</v>
+        <v>0.02367230830222797</v>
       </c>
       <c r="F33">
-        <v>-0.08591065021087582</v>
+        <v>-0.001756550402556982</v>
       </c>
       <c r="G33">
-        <v>-0.06358627026496953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04606860884190382</v>
+      </c>
+      <c r="H33">
+        <v>0.04169518303013103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03295297685561835</v>
+        <v>0.02685229214341994</v>
       </c>
       <c r="C34">
-        <v>0.02126740475171009</v>
+        <v>0.01725952252250565</v>
       </c>
       <c r="D34">
-        <v>0.01267255414422574</v>
+        <v>-0.03601813660895292</v>
       </c>
       <c r="E34">
-        <v>0.03167015046038252</v>
+        <v>-0.009485114491239637</v>
       </c>
       <c r="F34">
-        <v>-0.05647487425945462</v>
+        <v>-0.01655438025494179</v>
       </c>
       <c r="G34">
-        <v>-0.01721222640342769</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02057386436456073</v>
+      </c>
+      <c r="H34">
+        <v>0.03925193104176114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01567051821114235</v>
+        <v>0.02123036527248138</v>
       </c>
       <c r="C36">
-        <v>0.004207518849305784</v>
+        <v>-0.00386129786817627</v>
       </c>
       <c r="D36">
-        <v>-0.0005853458547256723</v>
+        <v>-0.0015008922072598</v>
       </c>
       <c r="E36">
-        <v>0.03003897064924352</v>
+        <v>-0.006768986925928235</v>
       </c>
       <c r="F36">
-        <v>-0.03191760656746311</v>
+        <v>-0.00410919385580443</v>
       </c>
       <c r="G36">
-        <v>-0.03667893499776367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01918797108205672</v>
+      </c>
+      <c r="H36">
+        <v>0.01075465305089102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.003392404547146059</v>
+        <v>0.02268816276770527</v>
       </c>
       <c r="C38">
-        <v>-0.01009882347385351</v>
+        <v>0.01622163299895132</v>
       </c>
       <c r="D38">
-        <v>0.01216232943881125</v>
+        <v>-0.008577825458823411</v>
       </c>
       <c r="E38">
-        <v>-0.01740756680291954</v>
+        <v>0.001211561071447075</v>
       </c>
       <c r="F38">
-        <v>-0.04371321496263291</v>
+        <v>-0.009083399626392596</v>
       </c>
       <c r="G38">
-        <v>-0.009309613903896518</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01874565974780593</v>
+      </c>
+      <c r="H38">
+        <v>0.03940635863477056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04117739599604989</v>
+        <v>0.01818083365146156</v>
       </c>
       <c r="C39">
-        <v>0.03771363331919893</v>
+        <v>0.001237141796471238</v>
       </c>
       <c r="D39">
-        <v>0.02699844646360504</v>
+        <v>-0.07649297945015748</v>
       </c>
       <c r="E39">
-        <v>0.03693133223926239</v>
+        <v>0.001599879944690579</v>
       </c>
       <c r="F39">
-        <v>-0.06708896628233148</v>
+        <v>-0.01877692969691094</v>
       </c>
       <c r="G39">
-        <v>-0.03054854495960621</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04203662147909212</v>
+      </c>
+      <c r="H39">
+        <v>0.07037817639128945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03691435578814806</v>
+        <v>0.03057570796957835</v>
       </c>
       <c r="C40">
-        <v>0.06353548041902315</v>
+        <v>0.0005183550561334684</v>
       </c>
       <c r="D40">
-        <v>0.03915919936098769</v>
+        <v>-0.02135311935546768</v>
       </c>
       <c r="E40">
-        <v>-0.006814053146061512</v>
+        <v>0.02401025395449279</v>
       </c>
       <c r="F40">
-        <v>-0.07772221444346006</v>
+        <v>-0.02734290755287027</v>
       </c>
       <c r="G40">
-        <v>-0.05016987931251594</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02616788083381329</v>
+      </c>
+      <c r="H40">
+        <v>0.06528174767920326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0007672943695112474</v>
+        <v>0.01157249467299466</v>
       </c>
       <c r="C41">
-        <v>-0.002448818090877991</v>
+        <v>-0.0005011139254209458</v>
       </c>
       <c r="D41">
-        <v>0.00772394196226918</v>
+        <v>0.0126862340131145</v>
       </c>
       <c r="E41">
-        <v>0.01055529814237892</v>
+        <v>0.00194374820358378</v>
       </c>
       <c r="F41">
-        <v>-0.00352906614652602</v>
+        <v>0.001499552625981688</v>
       </c>
       <c r="G41">
-        <v>-0.04911550101454332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.00306377070609287</v>
+      </c>
+      <c r="H41">
+        <v>-0.00541170087813712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3632517892347329</v>
+        <v>0.197721757449456</v>
       </c>
       <c r="C42">
-        <v>-0.6603967392649325</v>
+        <v>-0.07492148263193418</v>
       </c>
       <c r="D42">
-        <v>0.5436662861588419</v>
+        <v>-0.331732370907271</v>
       </c>
       <c r="E42">
-        <v>-0.1567446709861113</v>
+        <v>0.2387923544612074</v>
       </c>
       <c r="F42">
-        <v>0.2646450297265252</v>
+        <v>0.852992797296713</v>
       </c>
       <c r="G42">
-        <v>-0.07235434205738575</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.199339846274235</v>
+      </c>
+      <c r="H42">
+        <v>-0.04618702597405205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005842295997112697</v>
+        <v>0.01185337683722404</v>
       </c>
       <c r="C43">
-        <v>-0.00709931699315578</v>
+        <v>-0.001647434685140693</v>
       </c>
       <c r="D43">
-        <v>0.01604711463125659</v>
+        <v>0.01307313199718672</v>
       </c>
       <c r="E43">
-        <v>0.01078733561214299</v>
+        <v>0.006190717988909822</v>
       </c>
       <c r="F43">
-        <v>-0.01957681299163009</v>
+        <v>0.007919234992072212</v>
       </c>
       <c r="G43">
-        <v>-0.0459519882783645</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005015443546821981</v>
+      </c>
+      <c r="H43">
+        <v>0.002974913259218038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01568098103354932</v>
+        <v>0.01359787209423432</v>
       </c>
       <c r="C44">
-        <v>-0.007708789250516881</v>
+        <v>0.00119731321702477</v>
       </c>
       <c r="D44">
-        <v>0.02066621289790499</v>
+        <v>-0.02473299377277866</v>
       </c>
       <c r="E44">
-        <v>0.01987097563838856</v>
+        <v>-0.004900924858242167</v>
       </c>
       <c r="F44">
-        <v>-0.1101276248693191</v>
+        <v>0.006424282452597132</v>
       </c>
       <c r="G44">
-        <v>-0.08704218407213812</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0372671087392358</v>
+      </c>
+      <c r="H44">
+        <v>0.0595109874331027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01869951672929846</v>
+        <v>0.01812465737827087</v>
       </c>
       <c r="C46">
-        <v>0.01054679112023499</v>
+        <v>-0.003986848248721243</v>
       </c>
       <c r="D46">
-        <v>0.02429263690403145</v>
+        <v>-0.01301814295247231</v>
       </c>
       <c r="E46">
-        <v>0.04833089886981919</v>
+        <v>-0.001610517635543442</v>
       </c>
       <c r="F46">
-        <v>-0.05741121561915984</v>
+        <v>-0.01307347126450075</v>
       </c>
       <c r="G46">
-        <v>-0.06601125000279631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.0464347123486981</v>
+      </c>
+      <c r="H46">
+        <v>0.01356962395139185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09448463155222941</v>
+        <v>0.07532437200294441</v>
       </c>
       <c r="C47">
-        <v>0.03313115038080578</v>
+        <v>0.02985301444326333</v>
       </c>
       <c r="D47">
-        <v>0.0118333733971819</v>
+        <v>-0.04437413808483136</v>
       </c>
       <c r="E47">
-        <v>0.02677233514046112</v>
+        <v>-0.0006945453327164404</v>
       </c>
       <c r="F47">
-        <v>-0.01620431696857549</v>
+        <v>-0.02147966313618021</v>
       </c>
       <c r="G47">
-        <v>-0.08885888156418104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007994322406812823</v>
+      </c>
+      <c r="H47">
+        <v>-0.02126339796903879</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01733959561107131</v>
+        <v>0.02265016749102524</v>
       </c>
       <c r="C48">
-        <v>0.005829849379848705</v>
+        <v>0.006695322988748758</v>
       </c>
       <c r="D48">
-        <v>0.01415332811806776</v>
+        <v>-0.007783987118896978</v>
       </c>
       <c r="E48">
-        <v>0.02575914262384754</v>
+        <v>-0.001694436441917529</v>
       </c>
       <c r="F48">
-        <v>-0.04830749549969099</v>
+        <v>-0.00815996961632735</v>
       </c>
       <c r="G48">
-        <v>-0.02545753239239299</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02519523830616966</v>
+      </c>
+      <c r="H48">
+        <v>0.01924122351886808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08856780026265952</v>
+        <v>0.0741312459589803</v>
       </c>
       <c r="C50">
-        <v>0.02894316233719326</v>
+        <v>0.0271760736672843</v>
       </c>
       <c r="D50">
-        <v>0.0213825145599258</v>
+        <v>-0.04309563600132934</v>
       </c>
       <c r="E50">
-        <v>0.0324342796087457</v>
+        <v>-0.01929850142787752</v>
       </c>
       <c r="F50">
-        <v>-0.04896551234911064</v>
+        <v>-0.01502155695435683</v>
       </c>
       <c r="G50">
-        <v>-0.04456971567055168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01393455959975777</v>
+      </c>
+      <c r="H50">
+        <v>-0.001345342449067476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01679080189298228</v>
+        <v>0.01794735506585412</v>
       </c>
       <c r="C51">
-        <v>-0.0133818080898544</v>
+        <v>-0.002059613685438959</v>
       </c>
       <c r="D51">
-        <v>0.0133076748736528</v>
+        <v>0.007040200145341508</v>
       </c>
       <c r="E51">
-        <v>-0.007952575979201671</v>
+        <v>-0.0003522764366758079</v>
       </c>
       <c r="F51">
-        <v>-0.1145100518143339</v>
+        <v>0.01377519729038338</v>
       </c>
       <c r="G51">
-        <v>-0.05803405652421797</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04712124490454441</v>
+      </c>
+      <c r="H51">
+        <v>0.05104653131076218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1047453146328161</v>
+        <v>0.09407636424276464</v>
       </c>
       <c r="C53">
-        <v>0.05190172501968697</v>
+        <v>0.03751340310392194</v>
       </c>
       <c r="D53">
-        <v>0.01682107279712996</v>
+        <v>-0.08126034077822501</v>
       </c>
       <c r="E53">
-        <v>0.04470669839750711</v>
+        <v>-0.007993488064421427</v>
       </c>
       <c r="F53">
-        <v>0.045477739234337</v>
+        <v>-0.04871371897600512</v>
       </c>
       <c r="G53">
-        <v>-0.0229062898876551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0415994102840618</v>
+      </c>
+      <c r="H53">
+        <v>-0.04383318721639001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02126593253492228</v>
+        <v>0.02595884025225065</v>
       </c>
       <c r="C54">
-        <v>0.01351584320553228</v>
+        <v>0.01100306339900863</v>
       </c>
       <c r="D54">
-        <v>-0.008558247187386585</v>
+        <v>0.01359636424554476</v>
       </c>
       <c r="E54">
-        <v>0.0371813220567524</v>
+        <v>-0.007236998224437587</v>
       </c>
       <c r="F54">
-        <v>-0.04677164600884719</v>
+        <v>-0.005077847622586933</v>
       </c>
       <c r="G54">
-        <v>-0.0712781707649139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03938112370991102</v>
+      </c>
+      <c r="H54">
+        <v>-0.003596953757428988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.104518451015018</v>
+        <v>0.07758801591790646</v>
       </c>
       <c r="C55">
-        <v>0.03003606080888966</v>
+        <v>0.03223356605584884</v>
       </c>
       <c r="D55">
-        <v>-0.005658542794691713</v>
+        <v>-0.07677570235106135</v>
       </c>
       <c r="E55">
-        <v>0.06610781568671734</v>
+        <v>-0.01519947862053057</v>
       </c>
       <c r="F55">
-        <v>0.03409741676888643</v>
+        <v>-0.03781061042017358</v>
       </c>
       <c r="G55">
-        <v>-0.0707040438074315</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0182968538131465</v>
+      </c>
+      <c r="H55">
+        <v>-0.05381373271515325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1435984533282388</v>
+        <v>0.1269694146425751</v>
       </c>
       <c r="C56">
-        <v>0.09140415208019464</v>
+        <v>0.05647355764583585</v>
       </c>
       <c r="D56">
-        <v>-0.02112451007856378</v>
+        <v>-0.1025754421541956</v>
       </c>
       <c r="E56">
-        <v>0.05713829773367714</v>
+        <v>-0.01285132681638625</v>
       </c>
       <c r="F56">
-        <v>0.09897708783571435</v>
+        <v>-0.07858099108378677</v>
       </c>
       <c r="G56">
-        <v>0.03626778821002121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07525732770075108</v>
+      </c>
+      <c r="H56">
+        <v>-0.05336622708783262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04866368213777975</v>
+        <v>0.03893839393602112</v>
       </c>
       <c r="C57">
-        <v>0.001358544070038956</v>
+        <v>-0.01039945528078637</v>
       </c>
       <c r="D57">
-        <v>0.01478261790355913</v>
+        <v>-0.03012787059249087</v>
       </c>
       <c r="E57">
-        <v>-0.01304470141395113</v>
+        <v>0.003976642194962909</v>
       </c>
       <c r="F57">
-        <v>-0.08002997297697428</v>
+        <v>-0.01463903834297692</v>
       </c>
       <c r="G57">
-        <v>-0.06233353827738107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05607236452575281</v>
+      </c>
+      <c r="H57">
+        <v>0.04636615466774097</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2095476314878447</v>
+        <v>0.1472229871559329</v>
       </c>
       <c r="C58">
-        <v>0.06335359924952058</v>
+        <v>0.04292297460590859</v>
       </c>
       <c r="D58">
-        <v>0.1280022809987858</v>
+        <v>-0.1535159119845976</v>
       </c>
       <c r="E58">
-        <v>0.118885764139622</v>
+        <v>0.1722222709993377</v>
       </c>
       <c r="F58">
-        <v>-0.3303913908983915</v>
+        <v>0.04180551835765677</v>
       </c>
       <c r="G58">
-        <v>-0.1413064405344103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8353760082901577</v>
+      </c>
+      <c r="H58">
+        <v>-0.3574296143194232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05008684446480439</v>
+        <v>0.1558821192028413</v>
       </c>
       <c r="C59">
-        <v>-0.0005261269734132034</v>
+        <v>0.03424698211003771</v>
       </c>
       <c r="D59">
-        <v>-0.1002879527981866</v>
+        <v>0.2245828975152781</v>
       </c>
       <c r="E59">
-        <v>-0.1412451748437148</v>
+        <v>0.02546732455313808</v>
       </c>
       <c r="F59">
-        <v>-0.06257282800654855</v>
+        <v>0.02213233880266746</v>
       </c>
       <c r="G59">
-        <v>0.0196867625370274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.00923052436276243</v>
+      </c>
+      <c r="H59">
+        <v>0.01751602679580567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1648232023890309</v>
+        <v>0.1765012495507258</v>
       </c>
       <c r="C60">
-        <v>0.04103866542812178</v>
+        <v>0.03614139768548954</v>
       </c>
       <c r="D60">
-        <v>0.05818327960589281</v>
+        <v>-0.01755869702326997</v>
       </c>
       <c r="E60">
-        <v>-0.06384401449111753</v>
+        <v>0.04671956044524511</v>
       </c>
       <c r="F60">
-        <v>-0.1757858564994228</v>
+        <v>-0.03761832626383533</v>
       </c>
       <c r="G60">
-        <v>0.3018388398009177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.03390203710574036</v>
+      </c>
+      <c r="H60">
+        <v>0.3888078063004982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02241950532078759</v>
+        <v>0.02161779096385673</v>
       </c>
       <c r="C61">
-        <v>0.00741074533384952</v>
+        <v>0.006618633192167634</v>
       </c>
       <c r="D61">
-        <v>0.01409741570148159</v>
+        <v>-0.04345116506885657</v>
       </c>
       <c r="E61">
-        <v>0.02026524209281528</v>
+        <v>-0.005379821399645181</v>
       </c>
       <c r="F61">
-        <v>-0.03900560451901373</v>
+        <v>-0.01689137906292943</v>
       </c>
       <c r="G61">
-        <v>-0.01863761657745032</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02523543168199091</v>
+      </c>
+      <c r="H61">
+        <v>0.051447412438995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01418727312813455</v>
+        <v>0.01292484271270418</v>
       </c>
       <c r="C63">
-        <v>0.01140616366334335</v>
+        <v>-0.00202833758041472</v>
       </c>
       <c r="D63">
-        <v>0.01650826973550884</v>
+        <v>-0.01742989892429992</v>
       </c>
       <c r="E63">
-        <v>0.04380548408886416</v>
+        <v>-0.005865445527445628</v>
       </c>
       <c r="F63">
-        <v>-0.01416110625998545</v>
+        <v>-0.01561956443661693</v>
       </c>
       <c r="G63">
-        <v>-0.0445248917820249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01740803978709122</v>
+      </c>
+      <c r="H63">
+        <v>0.005405220740963845</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03529022502769039</v>
+        <v>0.0390319809133261</v>
       </c>
       <c r="C64">
-        <v>0.004318411825438123</v>
+        <v>0.009195972234952563</v>
       </c>
       <c r="D64">
-        <v>-0.01159172442077382</v>
+        <v>-0.03710557862077699</v>
       </c>
       <c r="E64">
-        <v>0.05774407104650236</v>
+        <v>-0.01138475961639029</v>
       </c>
       <c r="F64">
-        <v>-0.02293285369007276</v>
+        <v>-0.002571760808103166</v>
       </c>
       <c r="G64">
-        <v>-0.0654620590115815</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.004993833134048279</v>
+      </c>
+      <c r="H64">
+        <v>0.0364060793953106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02084139732247492</v>
+        <v>0.02827661110087911</v>
       </c>
       <c r="C65">
-        <v>0.01333716274752974</v>
+        <v>-0.004874094586707406</v>
       </c>
       <c r="D65">
-        <v>0.01467841298379756</v>
+        <v>-0.05830527277225906</v>
       </c>
       <c r="E65">
-        <v>0.02056881349717826</v>
+        <v>-0.01122383730491772</v>
       </c>
       <c r="F65">
-        <v>-0.02020808442215464</v>
+        <v>-0.03098019084101387</v>
       </c>
       <c r="G65">
-        <v>0.01090512625316171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001031645526256151</v>
+      </c>
+      <c r="H65">
+        <v>0.0631109143093974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04225419617545327</v>
+        <v>0.02485875241681963</v>
       </c>
       <c r="C66">
-        <v>0.03897824606764028</v>
+        <v>0.006184810022670575</v>
       </c>
       <c r="D66">
-        <v>0.03062223114429273</v>
+        <v>-0.09042760534889209</v>
       </c>
       <c r="E66">
-        <v>0.03595321895353355</v>
+        <v>0.002601303415034459</v>
       </c>
       <c r="F66">
-        <v>-0.05939659875356465</v>
+        <v>-0.03595222074449835</v>
       </c>
       <c r="G66">
-        <v>-0.02041098088071866</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03527173178451432</v>
+      </c>
+      <c r="H66">
+        <v>0.07428024844924196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01583070428224119</v>
+        <v>0.04354874269488438</v>
       </c>
       <c r="C67">
-        <v>-0.003512011267186745</v>
+        <v>0.01959403299765962</v>
       </c>
       <c r="D67">
-        <v>0.01134251726880039</v>
+        <v>-0.004324751462368103</v>
       </c>
       <c r="E67">
-        <v>-0.03408913770391137</v>
+        <v>0.004753826009301627</v>
       </c>
       <c r="F67">
-        <v>-0.03090268230616458</v>
+        <v>-0.0162390699683237</v>
       </c>
       <c r="G67">
-        <v>0.003171901277151899</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0036977497205478</v>
+      </c>
+      <c r="H67">
+        <v>0.03891302940500611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06669851015266402</v>
+        <v>0.1570035156251166</v>
       </c>
       <c r="C68">
-        <v>-0.01603224737779416</v>
+        <v>0.01409586982185808</v>
       </c>
       <c r="D68">
-        <v>-0.1341737064550422</v>
+        <v>0.2271516023741582</v>
       </c>
       <c r="E68">
-        <v>-0.1412085971852734</v>
+        <v>0.02063275150327083</v>
       </c>
       <c r="F68">
-        <v>-0.04835904426167809</v>
+        <v>0.04570464868780923</v>
       </c>
       <c r="G68">
-        <v>0.05540777992995977</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02166436373395096</v>
+      </c>
+      <c r="H68">
+        <v>-0.04038724339436379</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06999223539413658</v>
+        <v>0.05917522061208734</v>
       </c>
       <c r="C69">
-        <v>0.03795574597578937</v>
+        <v>0.02869369813271428</v>
       </c>
       <c r="D69">
-        <v>0.009089333047152436</v>
+        <v>-0.04067329659491008</v>
       </c>
       <c r="E69">
-        <v>0.00585556148703076</v>
+        <v>0.0009119537348657572</v>
       </c>
       <c r="F69">
-        <v>-0.01424919934278093</v>
+        <v>-0.03067639447636868</v>
       </c>
       <c r="G69">
-        <v>-0.08510475768398086</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01437164740041365</v>
+      </c>
+      <c r="H69">
+        <v>0.003590491350187626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07439775452390471</v>
+        <v>0.147331224653967</v>
       </c>
       <c r="C71">
-        <v>-0.03320505622522427</v>
+        <v>0.02208019076097396</v>
       </c>
       <c r="D71">
-        <v>-0.1151949416140756</v>
+        <v>0.1989498501832663</v>
       </c>
       <c r="E71">
-        <v>-0.196756497660113</v>
+        <v>0.02644652056986328</v>
       </c>
       <c r="F71">
-        <v>-0.0556353353841928</v>
+        <v>0.05308875447228827</v>
       </c>
       <c r="G71">
-        <v>0.006949170198360537</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02047963893784175</v>
+      </c>
+      <c r="H71">
+        <v>-0.02912617779743471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1154143664156368</v>
+        <v>0.08207102475039632</v>
       </c>
       <c r="C72">
-        <v>0.08781121187472885</v>
+        <v>0.03942415690388962</v>
       </c>
       <c r="D72">
-        <v>-0.00298139307020173</v>
+        <v>-0.07724996175610641</v>
       </c>
       <c r="E72">
-        <v>0.01880603444551258</v>
+        <v>0.007698693227125655</v>
       </c>
       <c r="F72">
-        <v>-0.1247573637069277</v>
+        <v>-0.07639213086062886</v>
       </c>
       <c r="G72">
-        <v>0.0690335914204331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05591221728809984</v>
+      </c>
+      <c r="H72">
+        <v>0.1652411233987844</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2483221568545795</v>
+        <v>0.2390036599113997</v>
       </c>
       <c r="C73">
-        <v>0.03531199376773302</v>
+        <v>0.04639002686992447</v>
       </c>
       <c r="D73">
-        <v>0.0595625452833634</v>
+        <v>-0.0690686387050824</v>
       </c>
       <c r="E73">
-        <v>-0.1689597062196718</v>
+        <v>0.07766436172905355</v>
       </c>
       <c r="F73">
-        <v>-0.2964768715007959</v>
+        <v>-0.03836933741643914</v>
       </c>
       <c r="G73">
-        <v>0.4324352257519705</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04886685104999704</v>
+      </c>
+      <c r="H73">
+        <v>0.5132276998618438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1415184273928944</v>
+        <v>0.1188526761327989</v>
       </c>
       <c r="C74">
-        <v>0.04455075001883269</v>
+        <v>0.05282312814746717</v>
       </c>
       <c r="D74">
-        <v>-0.01617570956905807</v>
+        <v>-0.10605253328796</v>
       </c>
       <c r="E74">
-        <v>0.03910705259298906</v>
+        <v>-0.009969088782828319</v>
       </c>
       <c r="F74">
-        <v>0.07092964905762376</v>
+        <v>-0.0600043402733858</v>
       </c>
       <c r="G74">
-        <v>0.0288506132047215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05605660452048639</v>
+      </c>
+      <c r="H74">
+        <v>-0.03399875185415241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2324885767779711</v>
+        <v>0.2282073993589941</v>
       </c>
       <c r="C75">
-        <v>0.155928903419393</v>
+        <v>0.1026188854694627</v>
       </c>
       <c r="D75">
-        <v>-0.02564728989401279</v>
+        <v>-0.1652313123106016</v>
       </c>
       <c r="E75">
-        <v>0.06862522480855099</v>
+        <v>0.001951724594580462</v>
       </c>
       <c r="F75">
-        <v>0.1256142235624995</v>
+        <v>-0.1425791265453497</v>
       </c>
       <c r="G75">
-        <v>0.004002134616157126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.125146731458592</v>
+      </c>
+      <c r="H75">
+        <v>-0.1233571987309485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2786053740328001</v>
+        <v>0.2022662428390502</v>
       </c>
       <c r="C76">
-        <v>0.1466350133291638</v>
+        <v>0.09594654770904142</v>
       </c>
       <c r="D76">
-        <v>-0.09231892121234919</v>
+        <v>-0.1584664500346509</v>
       </c>
       <c r="E76">
-        <v>0.09640085436481405</v>
+        <v>-0.04934701278397274</v>
       </c>
       <c r="F76">
-        <v>0.1652050551954172</v>
+        <v>-0.1372460260674064</v>
       </c>
       <c r="G76">
-        <v>-0.002649289943801098</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1199185972405207</v>
+      </c>
+      <c r="H76">
+        <v>-0.1304512146203398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1351086163146793</v>
+        <v>0.06829206866655096</v>
       </c>
       <c r="C77">
-        <v>-0.03282790001814056</v>
+        <v>0.007748069479882816</v>
       </c>
       <c r="D77">
-        <v>0.0910896782645894</v>
+        <v>-0.06186900325134133</v>
       </c>
       <c r="E77">
-        <v>0.06882739717944975</v>
+        <v>0.01617711481134836</v>
       </c>
       <c r="F77">
-        <v>-0.1781064700074288</v>
+        <v>0.03893315597255739</v>
       </c>
       <c r="G77">
-        <v>-0.1761476800615205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1010224097271806</v>
+      </c>
+      <c r="H77">
+        <v>0.007554208714516885</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06854985245482347</v>
+        <v>0.03932965903008871</v>
       </c>
       <c r="C78">
-        <v>0.02421328072927888</v>
+        <v>0.01032041803651528</v>
       </c>
       <c r="D78">
-        <v>0.03078285158156868</v>
+        <v>-0.04937828085403559</v>
       </c>
       <c r="E78">
-        <v>0.09162823716932193</v>
+        <v>-0.008097179953301243</v>
       </c>
       <c r="F78">
-        <v>-0.08075802708721819</v>
+        <v>-0.01976329616590535</v>
       </c>
       <c r="G78">
-        <v>-0.02902013032854685</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05733740801327407</v>
+      </c>
+      <c r="H78">
+        <v>0.06945334640094905</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1400731750283325</v>
+        <v>0.1392824904021083</v>
       </c>
       <c r="C80">
-        <v>-0.5788920051688921</v>
+        <v>0.03659314642865089</v>
       </c>
       <c r="D80">
-        <v>-0.5761207721863737</v>
+        <v>-0.03949848299576253</v>
       </c>
       <c r="E80">
-        <v>0.5139621772070798</v>
+        <v>-0.9352099982428647</v>
       </c>
       <c r="F80">
-        <v>-0.07813329003744532</v>
+        <v>0.2546251749278227</v>
       </c>
       <c r="G80">
-        <v>0.115388144123868</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1247645865302182</v>
+      </c>
+      <c r="H80">
+        <v>0.01137394245130253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1705845360535941</v>
+        <v>0.1486717144623526</v>
       </c>
       <c r="C81">
-        <v>0.1084642710826738</v>
+        <v>0.06571265254242567</v>
       </c>
       <c r="D81">
-        <v>-0.04402082165278748</v>
+        <v>-0.09816205358340424</v>
       </c>
       <c r="E81">
-        <v>0.05307815441514416</v>
+        <v>-0.01811770317798594</v>
       </c>
       <c r="F81">
-        <v>0.1357581440001416</v>
+        <v>-0.08436007564290897</v>
       </c>
       <c r="G81">
-        <v>0.02212914684533049</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0817599937242509</v>
+      </c>
+      <c r="H81">
+        <v>-0.08750468956675422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04911461480777923</v>
+        <v>0.03293171561071385</v>
       </c>
       <c r="C83">
-        <v>0.0003513776175469251</v>
+        <v>0.005877988982263274</v>
       </c>
       <c r="D83">
-        <v>0.03942430243080416</v>
+        <v>-0.02134199242223003</v>
       </c>
       <c r="E83">
-        <v>0.01554866708525587</v>
+        <v>0.005513099593659979</v>
       </c>
       <c r="F83">
-        <v>-0.05556842625534843</v>
+        <v>-0.002251241820438342</v>
       </c>
       <c r="G83">
-        <v>-0.04199746346742422</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04010048782172699</v>
+      </c>
+      <c r="H83">
+        <v>0.04245893251345253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.253770126316828</v>
+        <v>0.2173662327860205</v>
       </c>
       <c r="C85">
-        <v>0.1388897631409526</v>
+        <v>0.08626682277261009</v>
       </c>
       <c r="D85">
-        <v>-0.04343814079280287</v>
+        <v>-0.1684652581055445</v>
       </c>
       <c r="E85">
-        <v>0.08118171899887328</v>
+        <v>-0.004841855202128723</v>
       </c>
       <c r="F85">
-        <v>0.1230970330450028</v>
+        <v>-0.1296916412537824</v>
       </c>
       <c r="G85">
-        <v>-0.03783792682845284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1356587835965486</v>
+      </c>
+      <c r="H85">
+        <v>-0.09216401731864719</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003222415405762965</v>
+        <v>0.02105703197653373</v>
       </c>
       <c r="C86">
-        <v>-0.007090658303350659</v>
+        <v>-0.0005700283172549641</v>
       </c>
       <c r="D86">
-        <v>0.02377618016883309</v>
+        <v>-0.008370242893946386</v>
       </c>
       <c r="E86">
-        <v>0.05363560406181634</v>
+        <v>0.008846106400022188</v>
       </c>
       <c r="F86">
-        <v>-0.06722296290639578</v>
+        <v>0.01797761016081088</v>
       </c>
       <c r="G86">
-        <v>-0.01452354785588214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05966515182710105</v>
+      </c>
+      <c r="H86">
+        <v>0.08186180362926876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03857286119872354</v>
+        <v>0.02682557722056177</v>
       </c>
       <c r="C87">
-        <v>-0.007268817798867936</v>
+        <v>0.001967291017047108</v>
       </c>
       <c r="D87">
-        <v>0.002966005186464007</v>
+        <v>-0.03271288756239384</v>
       </c>
       <c r="E87">
-        <v>0.03866242761064836</v>
+        <v>-0.008732742841621162</v>
       </c>
       <c r="F87">
-        <v>-0.1104482635811861</v>
+        <v>-0.005391146097472801</v>
       </c>
       <c r="G87">
-        <v>-0.03375283038752439</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07604285806104462</v>
+      </c>
+      <c r="H87">
+        <v>0.0740742676421227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01080098572782135</v>
+        <v>0.03541640508855977</v>
       </c>
       <c r="C88">
-        <v>0.003244364169144541</v>
+        <v>-0.01168638503619755</v>
       </c>
       <c r="D88">
-        <v>-0.01571455532357465</v>
+        <v>-0.005965701090130063</v>
       </c>
       <c r="E88">
-        <v>-8.731696697410046e-05</v>
+        <v>-0.008516380845176771</v>
       </c>
       <c r="F88">
-        <v>-0.004582906423300771</v>
+        <v>-0.007604998233642339</v>
       </c>
       <c r="G88">
-        <v>-0.05530208625081158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003053400425432328</v>
+      </c>
+      <c r="H88">
+        <v>0.01587087194327651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09269501659900931</v>
+        <v>0.2503295914125089</v>
       </c>
       <c r="C89">
-        <v>-0.04731704476756519</v>
+        <v>0.03453401821254157</v>
       </c>
       <c r="D89">
-        <v>-0.1630024320474716</v>
+        <v>0.3514119474015713</v>
       </c>
       <c r="E89">
-        <v>-0.2618214014576068</v>
+        <v>0.0414057639042113</v>
       </c>
       <c r="F89">
-        <v>-0.1032660899627458</v>
+        <v>0.05173436416095631</v>
       </c>
       <c r="G89">
-        <v>-0.03263358558395413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02324675689420341</v>
+      </c>
+      <c r="H89">
+        <v>-0.008935758582513833</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08254065123030969</v>
+        <v>0.2008705457430447</v>
       </c>
       <c r="C90">
-        <v>-0.07135567530416789</v>
+        <v>0.02787609722463706</v>
       </c>
       <c r="D90">
-        <v>-0.216785033021362</v>
+        <v>0.3101540390019338</v>
       </c>
       <c r="E90">
-        <v>-0.2667643740085102</v>
+        <v>0.03208570517745688</v>
       </c>
       <c r="F90">
-        <v>-0.05923264323047504</v>
+        <v>0.06900753856158459</v>
       </c>
       <c r="G90">
-        <v>-0.03445100312717165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02986733887586497</v>
+      </c>
+      <c r="H90">
+        <v>-0.06823171662171368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3089037803647314</v>
+        <v>0.2343386484516292</v>
       </c>
       <c r="C91">
-        <v>0.1540122191577205</v>
+        <v>0.103143959729073</v>
       </c>
       <c r="D91">
-        <v>-0.03359864339599251</v>
+        <v>-0.1555244903051627</v>
       </c>
       <c r="E91">
-        <v>0.06169120435674874</v>
+        <v>-0.003500951072963512</v>
       </c>
       <c r="F91">
-        <v>0.238601018619503</v>
+        <v>-0.1346099264541117</v>
       </c>
       <c r="G91">
-        <v>0.0348120266239833</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1463864228498361</v>
+      </c>
+      <c r="H91">
+        <v>-0.1676795974483783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1752293595127746</v>
+        <v>0.2482682695603483</v>
       </c>
       <c r="C92">
-        <v>-0.01258932053024879</v>
+        <v>0.09154100983159592</v>
       </c>
       <c r="D92">
-        <v>-0.2979471156028664</v>
+        <v>0.2372883818641408</v>
       </c>
       <c r="E92">
-        <v>-0.3497080003769836</v>
+        <v>0.01812318759780762</v>
       </c>
       <c r="F92">
-        <v>0.07325060951323634</v>
+        <v>0.02216071945834166</v>
       </c>
       <c r="G92">
-        <v>-0.5388363790148378</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01033096573351968</v>
+      </c>
+      <c r="H92">
+        <v>-0.1456847514146189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08733856274076951</v>
+        <v>0.224723922666268</v>
       </c>
       <c r="C93">
-        <v>-0.0751577490843722</v>
+        <v>0.03952579229968099</v>
       </c>
       <c r="D93">
-        <v>-0.2406333631906946</v>
+        <v>0.3299770914558914</v>
       </c>
       <c r="E93">
-        <v>-0.3830122183445547</v>
+        <v>0.05673315978650283</v>
       </c>
       <c r="F93">
-        <v>-0.02494325430594504</v>
+        <v>0.07583890958045253</v>
       </c>
       <c r="G93">
-        <v>0.0482364787639117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02836938448235854</v>
+      </c>
+      <c r="H93">
+        <v>-0.0112752786164246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3021168743918001</v>
+        <v>0.2575414176071136</v>
       </c>
       <c r="C94">
-        <v>0.2224756980984886</v>
+        <v>0.09369385665110969</v>
       </c>
       <c r="D94">
-        <v>-0.07905155298740431</v>
+        <v>-0.153493967501239</v>
       </c>
       <c r="E94">
-        <v>0.07607854300619639</v>
+        <v>0.004824681546717652</v>
       </c>
       <c r="F94">
-        <v>0.2058490256645258</v>
+        <v>-0.1822835392343166</v>
       </c>
       <c r="G94">
-        <v>0.06819876534199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1325683137372657</v>
+      </c>
+      <c r="H94">
+        <v>-0.1922172882385989</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06693228826371017</v>
+        <v>0.05421103854956241</v>
       </c>
       <c r="C95">
-        <v>0.02900666663789988</v>
+        <v>0.02965655861188028</v>
       </c>
       <c r="D95">
-        <v>0.09550453566134882</v>
+        <v>-0.08605996994170007</v>
       </c>
       <c r="E95">
-        <v>0.06571703423730141</v>
+        <v>0.08117992097289715</v>
       </c>
       <c r="F95">
-        <v>-0.01240998489788963</v>
+        <v>-0.005862785180054357</v>
       </c>
       <c r="G95">
-        <v>-0.1550790844825208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.02962976513321234</v>
+      </c>
+      <c r="H95">
+        <v>0.04056305381947146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1862239094266697</v>
+        <v>0.1811029972500147</v>
       </c>
       <c r="C98">
-        <v>-0.00556874275232765</v>
+        <v>0.06769585782558786</v>
       </c>
       <c r="D98">
-        <v>0.03302010120629168</v>
+        <v>-0.04666742258767127</v>
       </c>
       <c r="E98">
-        <v>-0.09923994027265029</v>
+        <v>0.04543823613437381</v>
       </c>
       <c r="F98">
-        <v>-0.170677035624424</v>
+        <v>-0.008980329594680566</v>
       </c>
       <c r="G98">
-        <v>0.3610357596463399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.0759635963383206</v>
+      </c>
+      <c r="H98">
+        <v>0.3765360620565724</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007286532143956472</v>
+        <v>0.01529221426390526</v>
       </c>
       <c r="C101">
-        <v>0.02264218675731104</v>
+        <v>-0.0005907871904688227</v>
       </c>
       <c r="D101">
-        <v>0.01931896223164114</v>
+        <v>-0.008436781447464809</v>
       </c>
       <c r="E101">
-        <v>0.09868527701311915</v>
+        <v>-0.005761420916037128</v>
       </c>
       <c r="F101">
-        <v>-0.144850051246821</v>
+        <v>-0.017158061381162</v>
       </c>
       <c r="G101">
-        <v>-0.1791429919211003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1086949712582808</v>
+      </c>
+      <c r="H101">
+        <v>-0.02634762870998783</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1103733657741153</v>
+        <v>0.1048135205049092</v>
       </c>
       <c r="C102">
-        <v>0.0690479613669769</v>
+        <v>0.03418561126587492</v>
       </c>
       <c r="D102">
-        <v>0.000893833006632806</v>
+        <v>-0.08265430698019685</v>
       </c>
       <c r="E102">
-        <v>0.05503711711146441</v>
+        <v>-0.006131750677978096</v>
       </c>
       <c r="F102">
-        <v>0.114915908468092</v>
+        <v>-0.06611657834285915</v>
       </c>
       <c r="G102">
-        <v>-0.0009180497119067153</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07683218097523917</v>
+      </c>
+      <c r="H102">
+        <v>-0.06811340552579621</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03111853327147334</v>
+        <v>0.01942279587673297</v>
       </c>
       <c r="C103">
-        <v>0.01748410327565106</v>
+        <v>0.007359060455491079</v>
       </c>
       <c r="D103">
-        <v>-0.005128368882164703</v>
+        <v>-0.01703924208924132</v>
       </c>
       <c r="E103">
-        <v>0.01598770553776042</v>
+        <v>-0.01168721821487234</v>
       </c>
       <c r="F103">
-        <v>-0.009178798763825043</v>
+        <v>-0.0122573051557437</v>
       </c>
       <c r="G103">
-        <v>-0.02007251590544525</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0006390576072929437</v>
+      </c>
+      <c r="H103">
+        <v>-0.007056865483512051</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.260591079450648</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.948067336749595</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.02613020076413094</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03663331210977107</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.144515031481784</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01211014863158923</v>
+      </c>
+      <c r="H104">
+        <v>-0.04060966154628142</v>
       </c>
     </row>
   </sheetData>
